--- a/수업계획 2022.xlsx
+++ b/수업계획 2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\class20221\DS_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NN\Desktop\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>금</t>
   </si>
@@ -32,10 +32,6 @@
     <t>화</t>
   </si>
   <si>
-    <t>과제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채점 이의신청</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,15 +44,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12 GAN, Resnet,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과제 Q&amp;A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>save &amp; load</t>
+    <t>목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮 12시 - 1시: 줌으로 들어오면 과제 Q&amp;A 가능합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,15 +102,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,93 +395,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B11:D17"/>
+  <dimension ref="B3:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.09765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="2"/>
+    <col min="4" max="4" width="45.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="1">
-        <v>44705</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="3">
+        <v>44714</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="3">
+        <v>44715</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="3">
+        <v>44719</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="1">
-        <v>44708</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="3">
+        <v>44726</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="3">
+        <v>44729</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="1">
-        <v>44712</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="1">
-        <v>44715</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="1">
-        <v>44719</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="1">
-        <v>44726</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="1">
-        <v>44729</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
